--- a/1data/Parametros - Mexican Hat.xlsx
+++ b/1data/Parametros - Mexican Hat.xlsx
@@ -24,15 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Continente </t>
   </si>
   <si>
-    <t xml:space="preserve">Parametro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSE </t>
+    <t>Parâmetro</t>
+  </si>
+  <si>
+    <t>MSE</t>
   </si>
   <si>
     <t>Europa</t>
@@ -44,10 +44,13 @@
     <t xml:space="preserve">America Central </t>
   </si>
   <si>
-    <t xml:space="preserve">America do Norte </t>
-  </si>
-  <si>
-    <t>Oceania</t>
+    <t xml:space="preserve">America Norte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania </t>
+  </si>
+  <si>
+    <t>Asia</t>
   </si>
 </sst>
 </file>
@@ -365,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,10 +392,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3.85</v>
+        <v>1.8</v>
       </c>
       <c r="C2">
-        <v>11.415932173973101</v>
+        <v>1.4769456939057599</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -400,10 +403,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="C3">
-        <v>19.993922875793199</v>
+        <v>6.18831193473269</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,10 +414,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.55</v>
+        <v>5.85</v>
       </c>
       <c r="C4">
-        <v>29.785017576585599</v>
+        <v>8.7340329775184404</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,10 +425,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4.95</v>
+        <v>3.8</v>
       </c>
       <c r="C5">
-        <v>21.664075310675798</v>
+        <v>2.3423050338405198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,10 +436,21 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C6">
-        <v>39.282030196527998</v>
+        <v>17.1013098005212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3.5</v>
+      </c>
+      <c r="C7">
+        <v>6.0317449560687599</v>
       </c>
     </row>
   </sheetData>
